--- a/data-raw/survey_info_macrointerest.xlsx
+++ b/data-raw/survey_info_macrointerest.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E614"/>
+  <dimension ref="A1:F614"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,15 +370,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>creator</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>

--- a/data-raw/survey_info_macrointerest.xlsx
+++ b/data-raw/survey_info_macrointerest.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fsolt/Documents/Projects/dcpo_macrointerest/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF057C-C477-5146-922F-9BEF6D484E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15FF04-A352-674B-B273-7F8FE373E3DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="760" windowWidth="29020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5540" yWindow="760" windowWidth="29020" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="3" r:id="rId1"/>
     <sheet name="毛悦" sheetId="1" r:id="rId2"/>
     <sheet name="周卓玮" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">combined!$A$1:$F$603</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7247" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7243" uniqueCount="1570">
   <si>
     <t>year</t>
   </si>
@@ -5256,6 +5259,33 @@
   </si>
   <si>
     <t>Heywood, P., University of Glasgow, Department of Politics; Miller, W. L., University of Strathclyde, Department of Politics; White, S., University of Glasgow, Department of Politics</t>
+  </si>
+  <si>
+    <t>Elizabeth Zechmeister</t>
+  </si>
+  <si>
+    <t>Jones, Roger; Papadakis, Elim; Gow, David</t>
+  </si>
+  <si>
+    <t>Denemark, David</t>
+  </si>
+  <si>
+    <t>Bean, Clive</t>
+  </si>
+  <si>
+    <t>Gibson, Rachel Kay</t>
+  </si>
+  <si>
+    <t>Pietsch, Juliet</t>
+  </si>
+  <si>
+    <t>Makkai, Toni</t>
+  </si>
+  <si>
+    <t>Sheppard, Jill; Cameron, Sarah</t>
+  </si>
+  <si>
+    <t>aes1993</t>
   </si>
 </sst>
 </file>
@@ -5706,10 +5736,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ACC630-814C-4DC0-9B69-403F37244E7E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C549" workbookViewId="0">
-      <selection activeCell="D563" sqref="D563"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5740,7 +5772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -5757,7 +5789,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -5774,7 +5806,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -5791,7 +5823,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -5808,7 +5840,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -5825,7 +5857,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -5842,7 +5874,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -5859,7 +5891,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -5876,7 +5908,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -5893,7 +5925,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -5910,7 +5942,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -5927,7 +5959,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -5944,7 +5976,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -5961,7 +5993,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -5978,7 +6010,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -5995,7 +6027,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -6015,7 +6047,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1982</v>
       </c>
@@ -6035,7 +6067,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1984</v>
       </c>
@@ -6055,7 +6087,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1986</v>
       </c>
@@ -6075,7 +6107,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1988</v>
       </c>
@@ -6095,7 +6127,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1990</v>
       </c>
@@ -6115,7 +6147,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1992</v>
       </c>
@@ -6135,7 +6167,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -6155,7 +6187,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1996</v>
       </c>
@@ -6175,7 +6207,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1998</v>
       </c>
@@ -6195,7 +6227,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2000</v>
       </c>
@@ -6215,7 +6247,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2002</v>
       </c>
@@ -6235,7 +6267,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -6255,7 +6287,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2008</v>
       </c>
@@ -6275,7 +6307,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -6292,7 +6324,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -6309,7 +6341,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2006</v>
       </c>
@@ -6326,7 +6358,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2007</v>
       </c>
@@ -6343,7 +6375,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2009</v>
       </c>
@@ -6360,7 +6392,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2010</v>
       </c>
@@ -6377,7 +6409,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2011</v>
       </c>
@@ -6394,7 +6426,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2012</v>
       </c>
@@ -6411,7 +6443,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -6428,7 +6460,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2014</v>
       </c>
@@ -6445,7 +6477,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -6462,7 +6494,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -6479,7 +6511,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -6496,7 +6528,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -6513,7 +6545,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -6530,7 +6562,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2000</v>
       </c>
@@ -6547,7 +6579,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2001</v>
       </c>
@@ -6564,7 +6596,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2002</v>
       </c>
@@ -6581,7 +6613,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2003</v>
       </c>
@@ -6598,7 +6630,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2005</v>
       </c>
@@ -6615,7 +6647,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2006</v>
       </c>
@@ -6632,7 +6664,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2007</v>
       </c>
@@ -6649,7 +6681,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2008</v>
       </c>
@@ -6666,7 +6698,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -6683,7 +6715,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -6700,7 +6732,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2012</v>
       </c>
@@ -6717,7 +6749,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -6734,7 +6766,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2015</v>
       </c>
@@ -6751,7 +6783,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2016</v>
       </c>
@@ -6768,7 +6800,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2018</v>
       </c>
@@ -6785,7 +6817,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -6802,7 +6834,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -6819,7 +6851,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -6836,7 +6868,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -6853,7 +6885,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -6870,7 +6902,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2018</v>
       </c>
@@ -6887,7 +6919,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -6904,7 +6936,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2018</v>
       </c>
@@ -6921,7 +6953,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2018</v>
       </c>
@@ -6938,7 +6970,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -6955,7 +6987,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -7003,7 +7035,7 @@
         <v>1046</v>
       </c>
       <c r="D73" t="s">
-        <v>418</v>
+        <v>1562</v>
       </c>
       <c r="E73" t="s">
         <v>416</v>
@@ -7017,13 +7049,13 @@
         <v>1993</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>1569</v>
       </c>
       <c r="C74" t="s">
         <v>1046</v>
       </c>
       <c r="D74" t="s">
-        <v>421</v>
+        <v>1563</v>
       </c>
       <c r="E74" t="s">
         <v>416</v>
@@ -7042,9 +7074,6 @@
       <c r="C75" t="s">
         <v>1046</v>
       </c>
-      <c r="D75" t="s">
-        <v>423</v>
-      </c>
       <c r="E75" t="s">
         <v>416</v>
       </c>
@@ -7063,7 +7092,7 @@
         <v>1046</v>
       </c>
       <c r="D76" t="s">
-        <v>425</v>
+        <v>1564</v>
       </c>
       <c r="E76" t="s">
         <v>427</v>
@@ -7082,9 +7111,6 @@
       <c r="C77" t="s">
         <v>1046</v>
       </c>
-      <c r="D77" t="s">
-        <v>425</v>
-      </c>
       <c r="E77" t="s">
         <v>416</v>
       </c>
@@ -7103,7 +7129,7 @@
         <v>1046</v>
       </c>
       <c r="D78" t="s">
-        <v>430</v>
+        <v>1565</v>
       </c>
       <c r="E78" t="s">
         <v>416</v>
@@ -7122,9 +7148,6 @@
       <c r="C79" t="s">
         <v>1046</v>
       </c>
-      <c r="D79" t="s">
-        <v>432</v>
-      </c>
       <c r="E79" t="s">
         <v>416</v>
       </c>
@@ -7143,7 +7166,7 @@
         <v>1046</v>
       </c>
       <c r="D80" t="s">
-        <v>434</v>
+        <v>1566</v>
       </c>
       <c r="E80" t="s">
         <v>426</v>
@@ -7162,9 +7185,6 @@
       <c r="C81" t="s">
         <v>1046</v>
       </c>
-      <c r="D81" t="s">
-        <v>436</v>
-      </c>
       <c r="E81" t="s">
         <v>437</v>
       </c>
@@ -7183,7 +7203,7 @@
         <v>1046</v>
       </c>
       <c r="D82" t="s">
-        <v>439</v>
+        <v>1567</v>
       </c>
       <c r="E82" t="s">
         <v>427</v>
@@ -7203,7 +7223,7 @@
         <v>1046</v>
       </c>
       <c r="D83" t="s">
-        <v>441</v>
+        <v>1568</v>
       </c>
       <c r="E83" t="s">
         <v>427</v>
@@ -7212,7 +7232,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2017</v>
       </c>
@@ -7232,7 +7252,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1997</v>
       </c>
@@ -7249,7 +7269,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>2001</v>
       </c>
@@ -7267,7 +7287,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>2005</v>
       </c>
@@ -7285,7 +7305,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2010</v>
       </c>
@@ -7303,7 +7323,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2015</v>
       </c>
@@ -7320,7 +7340,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>2017</v>
       </c>
@@ -7337,7 +7357,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -7354,7 +7374,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1994</v>
       </c>
@@ -7374,7 +7394,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1995</v>
       </c>
@@ -7394,7 +7414,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1996</v>
       </c>
@@ -7414,7 +7434,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1997</v>
       </c>
@@ -7434,7 +7454,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1998</v>
       </c>
@@ -7454,7 +7474,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1999</v>
       </c>
@@ -7474,7 +7494,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2000</v>
       </c>
@@ -7494,7 +7514,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2001</v>
       </c>
@@ -7514,7 +7534,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>2002</v>
       </c>
@@ -7534,7 +7554,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2003</v>
       </c>
@@ -7554,7 +7574,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2004</v>
       </c>
@@ -7574,7 +7594,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2005</v>
       </c>
@@ -7594,7 +7614,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2006</v>
       </c>
@@ -7614,7 +7634,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2007</v>
       </c>
@@ -7634,7 +7654,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2008</v>
       </c>
@@ -7654,7 +7674,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2009</v>
       </c>
@@ -7674,7 +7694,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2010</v>
       </c>
@@ -7694,7 +7714,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2011</v>
       </c>
@@ -7714,7 +7734,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2012</v>
       </c>
@@ -7734,7 +7754,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2013</v>
       </c>
@@ -7754,7 +7774,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2014</v>
       </c>
@@ -7774,7 +7794,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2015</v>
       </c>
@@ -7794,7 +7814,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2016</v>
       </c>
@@ -7814,7 +7834,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2017</v>
       </c>
@@ -7834,7 +7854,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2018</v>
       </c>
@@ -7854,7 +7874,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2019</v>
       </c>
@@ -7874,7 +7894,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -7894,7 +7914,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1986</v>
       </c>
@@ -7914,7 +7934,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1989</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1990</v>
       </c>
@@ -7954,7 +7974,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1991</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -7991,7 +8011,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2006</v>
       </c>
@@ -8008,7 +8028,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2008</v>
       </c>
@@ -8025,7 +8045,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2011</v>
       </c>
@@ -8042,7 +8062,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2015</v>
       </c>
@@ -8059,7 +8079,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -8076,7 +8096,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -8093,7 +8113,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1997</v>
       </c>
@@ -8113,7 +8133,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2002</v>
       </c>
@@ -8133,7 +8153,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2003</v>
       </c>
@@ -8153,7 +8173,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1991</v>
       </c>
@@ -8170,7 +8190,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1999</v>
       </c>
@@ -8190,7 +8210,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2000</v>
       </c>
@@ -8210,7 +8230,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2001</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2002</v>
       </c>
@@ -8250,7 +8270,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1990</v>
       </c>
@@ -8267,7 +8287,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2019</v>
       </c>
@@ -8284,7 +8304,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1993</v>
       </c>
@@ -8301,7 +8321,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1994</v>
       </c>
@@ -8318,7 +8338,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1996</v>
       </c>
@@ -8335,7 +8355,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1998</v>
       </c>
@@ -8352,7 +8372,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1999</v>
       </c>
@@ -8369,7 +8389,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2004</v>
       </c>
@@ -8386,7 +8406,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2005</v>
       </c>
@@ -8403,7 +8423,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2006</v>
       </c>
@@ -8420,7 +8440,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2007</v>
       </c>
@@ -8437,7 +8457,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2008</v>
       </c>
@@ -8454,7 +8474,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2009</v>
       </c>
@@ -8471,7 +8491,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2010</v>
       </c>
@@ -8488,7 +8508,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2011</v>
       </c>
@@ -8505,7 +8525,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2012</v>
       </c>
@@ -8522,7 +8542,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2013</v>
       </c>
@@ -8539,7 +8559,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2014</v>
       </c>
@@ -8556,7 +8576,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>2015</v>
       </c>
@@ -8573,7 +8593,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>2016</v>
       </c>
@@ -8590,7 +8610,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>2017</v>
       </c>
@@ -8607,7 +8627,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2018</v>
       </c>
@@ -8624,7 +8644,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -8641,7 +8661,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2009</v>
       </c>
@@ -8661,7 +8681,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2012</v>
       </c>
@@ -8681,7 +8701,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2014</v>
       </c>
@@ -8701,7 +8721,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2015</v>
       </c>
@@ -8721,7 +8741,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2016</v>
       </c>
@@ -8741,7 +8761,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>2017</v>
       </c>
@@ -8761,7 +8781,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2018</v>
       </c>
@@ -8781,7 +8801,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>2019</v>
       </c>
@@ -8801,7 +8821,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -8821,7 +8841,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -8841,7 +8861,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1980</v>
       </c>
@@ -8861,7 +8881,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1982</v>
       </c>
@@ -8881,7 +8901,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1984</v>
       </c>
@@ -8901,7 +8921,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1986</v>
       </c>
@@ -8921,7 +8941,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1990</v>
       </c>
@@ -8941,7 +8961,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1991</v>
       </c>
@@ -8961,7 +8981,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1992</v>
       </c>
@@ -8981,7 +9001,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1994</v>
       </c>
@@ -9001,7 +9021,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1996</v>
       </c>
@@ -9021,7 +9041,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1998</v>
       </c>
@@ -9041,7 +9061,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2000</v>
       </c>
@@ -9061,7 +9081,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>2002</v>
       </c>
@@ -9081,7 +9101,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>2004</v>
       </c>
@@ -9101,7 +9121,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>2006</v>
       </c>
@@ -9121,7 +9141,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2008</v>
       </c>
@@ -9141,7 +9161,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2010</v>
       </c>
@@ -9161,7 +9181,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2012</v>
       </c>
@@ -9181,7 +9201,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2014</v>
       </c>
@@ -9201,7 +9221,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2016</v>
       </c>
@@ -9221,7 +9241,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2018</v>
       </c>
@@ -9241,7 +9261,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1984</v>
       </c>
@@ -9261,7 +9281,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1987</v>
       </c>
@@ -9281,7 +9301,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1990</v>
       </c>
@@ -9301,7 +9321,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1994</v>
       </c>
@@ -9321,7 +9341,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1998</v>
       </c>
@@ -9341,7 +9361,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>2001</v>
       </c>
@@ -9361,7 +9381,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>2005</v>
       </c>
@@ -9381,7 +9401,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2007</v>
       </c>
@@ -9401,7 +9421,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>2011</v>
       </c>
@@ -9421,7 +9441,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1971</v>
       </c>
@@ -9441,7 +9461,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1972</v>
       </c>
@@ -9461,7 +9481,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1977</v>
       </c>
@@ -9481,7 +9501,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1981</v>
       </c>
@@ -9501,7 +9521,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1982</v>
       </c>
@@ -9521,7 +9541,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1986</v>
       </c>
@@ -9541,7 +9561,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1989</v>
       </c>
@@ -9561,7 +9581,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1994</v>
       </c>
@@ -9581,7 +9601,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1998</v>
       </c>
@@ -9601,7 +9621,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2002</v>
       </c>
@@ -9621,7 +9641,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2003</v>
       </c>
@@ -9641,7 +9661,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2006</v>
       </c>
@@ -9661,7 +9681,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2012</v>
       </c>
@@ -9681,7 +9701,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1982</v>
       </c>
@@ -9701,7 +9721,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1983</v>
       </c>
@@ -9721,7 +9741,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1986</v>
       </c>
@@ -9741,7 +9761,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1987</v>
       </c>
@@ -9761,7 +9781,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1988</v>
       </c>
@@ -9781,7 +9801,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1989</v>
       </c>
@@ -9801,7 +9821,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1989</v>
       </c>
@@ -9821,7 +9841,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1989</v>
       </c>
@@ -9841,7 +9861,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1990</v>
       </c>
@@ -9861,7 +9881,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1990</v>
       </c>
@@ -9881,7 +9901,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1990</v>
       </c>
@@ -9901,7 +9921,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1990</v>
       </c>
@@ -9921,7 +9941,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1992</v>
       </c>
@@ -9941,7 +9961,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1992</v>
       </c>
@@ -9961,7 +9981,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1994</v>
       </c>
@@ -9981,7 +10001,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1994</v>
       </c>
@@ -10001,7 +10021,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1998</v>
       </c>
@@ -10021,7 +10041,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2001</v>
       </c>
@@ -10041,7 +10061,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2002</v>
       </c>
@@ -10061,7 +10081,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2003</v>
       </c>
@@ -10081,7 +10101,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2005</v>
       </c>
@@ -10101,7 +10121,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2005</v>
       </c>
@@ -10121,7 +10141,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2006</v>
       </c>
@@ -10141,7 +10161,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2006</v>
       </c>
@@ -10161,7 +10181,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2007</v>
       </c>
@@ -10181,7 +10201,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2009</v>
       </c>
@@ -10201,7 +10221,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2010</v>
       </c>
@@ -10221,7 +10241,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2012</v>
       </c>
@@ -10241,7 +10261,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>2013</v>
       </c>
@@ -10261,7 +10281,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>2015</v>
       </c>
@@ -10281,7 +10301,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>2017</v>
       </c>
@@ -10301,7 +10321,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>2018</v>
       </c>
@@ -10321,7 +10341,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>2021</v>
       </c>
@@ -10341,7 +10361,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -10361,7 +10381,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>1989</v>
       </c>
@@ -10381,7 +10401,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1994</v>
       </c>
@@ -10401,7 +10421,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>1999</v>
       </c>
@@ -10418,7 +10438,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2004</v>
       </c>
@@ -10438,7 +10458,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>2009</v>
       </c>
@@ -10458,7 +10478,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2019</v>
       </c>
@@ -10478,7 +10498,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2002</v>
       </c>
@@ -10495,7 +10515,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>2003</v>
       </c>
@@ -10512,7 +10532,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>2020</v>
       </c>
@@ -10529,7 +10549,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>2021</v>
       </c>
@@ -10546,7 +10566,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -10563,7 +10583,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>2004</v>
       </c>
@@ -10580,7 +10600,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>2005</v>
       </c>
@@ -10597,7 +10617,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>2006</v>
       </c>
@@ -10614,7 +10634,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2006</v>
       </c>
@@ -10631,7 +10651,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2006</v>
       </c>
@@ -10648,7 +10668,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2007</v>
       </c>
@@ -10665,7 +10685,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2007</v>
       </c>
@@ -10682,7 +10702,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>2006</v>
       </c>
@@ -10699,7 +10719,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>2008</v>
       </c>
@@ -10716,7 +10736,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>2009</v>
       </c>
@@ -10733,7 +10753,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>2011</v>
       </c>
@@ -10750,7 +10770,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>2009</v>
       </c>
@@ -10767,7 +10787,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>2010</v>
       </c>
@@ -10784,7 +10804,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>2011</v>
       </c>
@@ -10801,7 +10821,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>2013</v>
       </c>
@@ -10818,7 +10838,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2012</v>
       </c>
@@ -10835,7 +10855,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>2013</v>
       </c>
@@ -10852,7 +10872,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>2014</v>
       </c>
@@ -10869,7 +10889,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2015</v>
       </c>
@@ -10886,7 +10906,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>2016</v>
       </c>
@@ -10903,7 +10923,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>2017</v>
       </c>
@@ -10920,7 +10940,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>2018</v>
       </c>
@@ -10937,7 +10957,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2019</v>
       </c>
@@ -10954,7 +10974,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2019</v>
       </c>
@@ -10971,7 +10991,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2014</v>
       </c>
@@ -10988,7 +11008,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2017</v>
       </c>
@@ -11008,7 +11028,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2018</v>
       </c>
@@ -11028,7 +11048,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2019</v>
       </c>
@@ -11048,7 +11068,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>2020</v>
       </c>
@@ -11068,7 +11088,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>2020</v>
       </c>
@@ -11088,7 +11108,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1981</v>
       </c>
@@ -11108,7 +11128,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1982</v>
       </c>
@@ -11128,7 +11148,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>1983</v>
       </c>
@@ -11148,7 +11168,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>1984</v>
       </c>
@@ -11168,7 +11188,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1990</v>
       </c>
@@ -11188,7 +11208,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>1991</v>
       </c>
@@ -11208,7 +11228,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>1992</v>
       </c>
@@ -11228,7 +11248,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>1993</v>
       </c>
@@ -11248,7 +11268,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>1999</v>
       </c>
@@ -11268,7 +11288,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2000</v>
       </c>
@@ -11288,7 +11308,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2008</v>
       </c>
@@ -11308,7 +11328,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2009</v>
       </c>
@@ -11328,7 +11348,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2000</v>
       </c>
@@ -11348,7 +11368,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2008</v>
       </c>
@@ -11368,7 +11388,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>1996</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>1998</v>
       </c>
@@ -11402,7 +11422,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2000</v>
       </c>
@@ -11419,7 +11439,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2002</v>
       </c>
@@ -11436,7 +11456,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2004</v>
       </c>
@@ -11453,7 +11473,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2006</v>
       </c>
@@ -11470,7 +11490,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2009</v>
       </c>
@@ -11487,7 +11507,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2011</v>
       </c>
@@ -11504,7 +11524,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>2014</v>
       </c>
@@ -11521,7 +11541,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>2015</v>
       </c>
@@ -11538,7 +11558,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>2016</v>
       </c>
@@ -11555,7 +11575,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>2017</v>
       </c>
@@ -11572,7 +11592,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>2018</v>
       </c>
@@ -11589,7 +11609,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2019</v>
       </c>
@@ -11606,7 +11626,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -11623,7 +11643,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2021</v>
       </c>
@@ -11643,7 +11663,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>1983</v>
       </c>
@@ -11663,7 +11683,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>1990</v>
       </c>
@@ -11683,7 +11703,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>1994</v>
       </c>
@@ -11703,7 +11723,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>1998</v>
       </c>
@@ -11723,7 +11743,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2002</v>
       </c>
@@ -11743,7 +11763,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2009</v>
       </c>
@@ -11763,7 +11783,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2013</v>
       </c>
@@ -11783,7 +11803,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2017</v>
       </c>
@@ -11803,7 +11823,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1987</v>
       </c>
@@ -11820,7 +11840,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1988</v>
       </c>
@@ -11837,7 +11857,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1989</v>
       </c>
@@ -11854,7 +11874,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>1990</v>
       </c>
@@ -11871,7 +11891,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>1994</v>
       </c>
@@ -11888,7 +11908,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>1997</v>
       </c>
@@ -11905,7 +11925,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>1999</v>
       </c>
@@ -11922,7 +11942,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2002</v>
       </c>
@@ -11939,7 +11959,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2003</v>
       </c>
@@ -11956,7 +11976,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2015</v>
       </c>
@@ -11973,7 +11993,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>1983</v>
       </c>
@@ -11993,7 +12013,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>1987</v>
       </c>
@@ -12013,7 +12033,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>1991</v>
       </c>
@@ -12033,7 +12053,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>1995</v>
       </c>
@@ -12053,7 +12073,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1999</v>
       </c>
@@ -12073,7 +12093,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2003</v>
       </c>
@@ -12093,7 +12113,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>2007</v>
       </c>
@@ -12113,7 +12133,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>2009</v>
       </c>
@@ -12133,7 +12153,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>2013</v>
       </c>
@@ -12153,7 +12173,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1990</v>
       </c>
@@ -12173,7 +12193,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1991</v>
       </c>
@@ -12193,7 +12213,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1995</v>
       </c>
@@ -12213,7 +12233,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1996</v>
       </c>
@@ -12233,7 +12253,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1997</v>
       </c>
@@ -12253,7 +12273,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1998</v>
       </c>
@@ -12273,7 +12293,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>2003</v>
       </c>
@@ -12293,7 +12313,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>2004</v>
       </c>
@@ -12313,7 +12333,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>2005</v>
       </c>
@@ -12333,7 +12353,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>2006</v>
       </c>
@@ -12353,7 +12373,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>2005</v>
       </c>
@@ -12373,7 +12393,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2006</v>
       </c>
@@ -12393,7 +12413,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>2007</v>
       </c>
@@ -12413,7 +12433,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>2008</v>
       </c>
@@ -12433,7 +12453,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>2006</v>
       </c>
@@ -12453,7 +12473,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2007</v>
       </c>
@@ -12473,7 +12493,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2008</v>
       </c>
@@ -12493,7 +12513,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2009</v>
       </c>
@@ -12513,7 +12533,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2013</v>
       </c>
@@ -12533,7 +12553,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2014</v>
       </c>
@@ -12553,7 +12573,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2015</v>
       </c>
@@ -12573,7 +12593,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2016</v>
       </c>
@@ -12593,7 +12613,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2015</v>
       </c>
@@ -12613,7 +12633,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2016</v>
       </c>
@@ -12633,7 +12653,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2017</v>
       </c>
@@ -12653,7 +12673,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2018</v>
       </c>
@@ -12673,7 +12693,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2012</v>
       </c>
@@ -12690,7 +12710,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1985</v>
       </c>
@@ -12707,7 +12727,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1990</v>
       </c>
@@ -12724,7 +12744,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1996</v>
       </c>
@@ -12741,7 +12761,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2001</v>
       </c>
@@ -12758,7 +12778,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2004</v>
       </c>
@@ -12775,7 +12795,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2006</v>
       </c>
@@ -12792,7 +12812,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2008</v>
       </c>
@@ -12809,7 +12829,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2011</v>
       </c>
@@ -12826,7 +12846,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>2013</v>
       </c>
@@ -12843,7 +12863,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>2018</v>
       </c>
@@ -12860,7 +12880,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1994</v>
       </c>
@@ -12877,7 +12897,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1996</v>
       </c>
@@ -12894,7 +12914,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1998</v>
       </c>
@@ -12911,7 +12931,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1999</v>
       </c>
@@ -12928,7 +12948,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>2001</v>
       </c>
@@ -12945,7 +12965,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>2004</v>
       </c>
@@ -12962,7 +12982,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2010</v>
       </c>
@@ -12979,7 +12999,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>2016</v>
       </c>
@@ -12999,7 +13019,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2012</v>
       </c>
@@ -13019,7 +13039,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>2014</v>
       </c>
@@ -13039,7 +13059,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>2017</v>
       </c>
@@ -13059,7 +13079,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>2019</v>
       </c>
@@ -13079,7 +13099,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>2012</v>
       </c>
@@ -13099,7 +13119,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2014</v>
       </c>
@@ -13119,7 +13139,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>2017</v>
       </c>
@@ -13139,7 +13159,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>2019</v>
       </c>
@@ -13159,7 +13179,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>2017</v>
       </c>
@@ -13179,7 +13199,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>2019</v>
       </c>
@@ -13199,7 +13219,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>2010</v>
       </c>
@@ -13219,7 +13239,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>2012</v>
       </c>
@@ -13239,7 +13259,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>2014</v>
       </c>
@@ -13259,7 +13279,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>2017</v>
       </c>
@@ -13279,7 +13299,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>2019</v>
       </c>
@@ -13299,7 +13319,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2012</v>
       </c>
@@ -13319,7 +13339,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2014</v>
       </c>
@@ -13339,7 +13359,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2017</v>
       </c>
@@ -13359,7 +13379,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2019</v>
       </c>
@@ -13379,7 +13399,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2016</v>
       </c>
@@ -13399,7 +13419,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>2006</v>
       </c>
@@ -13416,7 +13436,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>2007</v>
       </c>
@@ -13433,7 +13453,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>2008</v>
       </c>
@@ -13450,7 +13470,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>2009</v>
       </c>
@@ -13467,7 +13487,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>2010</v>
       </c>
@@ -13484,7 +13504,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>2012</v>
       </c>
@@ -13501,7 +13521,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>2014</v>
       </c>
@@ -13518,7 +13538,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2016</v>
       </c>
@@ -13535,7 +13555,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>2017</v>
       </c>
@@ -13549,7 +13569,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>2018</v>
       </c>
@@ -13566,7 +13586,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>2019</v>
       </c>
@@ -13580,7 +13600,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>2016</v>
       </c>
@@ -13600,7 +13620,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2018</v>
       </c>
@@ -13620,7 +13640,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>2016</v>
       </c>
@@ -13640,7 +13660,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>2014</v>
       </c>
@@ -13660,7 +13680,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>2019</v>
       </c>
@@ -13680,7 +13700,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>2016</v>
       </c>
@@ -13700,7 +13720,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2016</v>
       </c>
@@ -13720,7 +13740,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>2017</v>
       </c>
@@ -13740,7 +13760,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>2019</v>
       </c>
@@ -13754,7 +13774,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>2016</v>
       </c>
@@ -13765,7 +13785,7 @@
         <v>1352</v>
       </c>
       <c r="D430" t="s">
-        <v>481</v>
+        <v>1561</v>
       </c>
       <c r="E430" t="s">
         <v>1354</v>
@@ -13774,7 +13794,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>2017</v>
       </c>
@@ -13794,7 +13814,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>2016</v>
       </c>
@@ -13814,7 +13834,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>2012</v>
       </c>
@@ -13834,7 +13854,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2010</v>
       </c>
@@ -13854,7 +13874,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2012</v>
       </c>
@@ -13874,7 +13894,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2017</v>
       </c>
@@ -13894,7 +13914,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2019</v>
       </c>
@@ -13914,7 +13934,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2010</v>
       </c>
@@ -13934,7 +13954,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2012</v>
       </c>
@@ -13954,7 +13974,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2014</v>
       </c>
@@ -13974,7 +13994,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2017</v>
       </c>
@@ -13994,7 +14014,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2019</v>
       </c>
@@ -14014,7 +14034,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2021</v>
       </c>
@@ -14034,7 +14054,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2012</v>
       </c>
@@ -14054,7 +14074,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2014</v>
       </c>
@@ -14074,7 +14094,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2016</v>
       </c>
@@ -14094,7 +14114,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>1995</v>
       </c>
@@ -14114,7 +14134,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>1996</v>
       </c>
@@ -14134,7 +14154,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1997</v>
       </c>
@@ -14154,7 +14174,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1998</v>
       </c>
@@ -14174,7 +14194,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>2000</v>
       </c>
@@ -14194,7 +14214,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>2001</v>
       </c>
@@ -14214,7 +14234,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>2003</v>
       </c>
@@ -14234,7 +14254,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>2004</v>
       </c>
@@ -14254,7 +14274,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>2005</v>
       </c>
@@ -14274,7 +14294,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>2007</v>
       </c>
@@ -14294,7 +14314,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>2009</v>
       </c>
@@ -14314,7 +14334,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>2010</v>
       </c>
@@ -14334,7 +14354,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>2013</v>
       </c>
@@ -14354,7 +14374,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>2020</v>
       </c>
@@ -14374,7 +14394,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1984</v>
       </c>
@@ -14394,7 +14414,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1987</v>
       </c>
@@ -14414,7 +14434,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1989</v>
       </c>
@@ -14434,7 +14454,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>1994</v>
       </c>
@@ -14454,7 +14474,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>1995</v>
       </c>
@@ -14474,7 +14494,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>1992</v>
       </c>
@@ -14494,7 +14514,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>1993</v>
       </c>
@@ -14514,7 +14534,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1995</v>
       </c>
@@ -14534,7 +14554,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1996</v>
       </c>
@@ -14554,7 +14574,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>2003</v>
       </c>
@@ -14574,7 +14594,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>2004</v>
       </c>
@@ -14594,7 +14614,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>2007</v>
       </c>
@@ -14614,7 +14634,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>1993</v>
       </c>
@@ -14634,7 +14654,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1996</v>
       </c>
@@ -14654,7 +14674,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>2005</v>
       </c>
@@ -14674,7 +14694,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>2008</v>
       </c>
@@ -14694,7 +14714,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>2011</v>
       </c>
@@ -14714,7 +14734,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2014</v>
       </c>
@@ -14734,7 +14754,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2017</v>
       </c>
@@ -14754,7 +14774,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2020</v>
       </c>
@@ -14774,7 +14794,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>1977</v>
       </c>
@@ -14791,7 +14811,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>1981</v>
       </c>
@@ -14808,7 +14828,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>1985</v>
       </c>
@@ -14825,7 +14845,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>1989</v>
       </c>
@@ -14842,7 +14862,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>1993</v>
       </c>
@@ -14859,7 +14879,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>1997</v>
       </c>
@@ -14876,7 +14896,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2001</v>
       </c>
@@ -14893,7 +14913,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2005</v>
       </c>
@@ -14910,7 +14930,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2009</v>
       </c>
@@ -14927,7 +14947,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2013</v>
       </c>
@@ -14944,7 +14964,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>1999</v>
       </c>
@@ -14962,7 +14982,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2003</v>
       </c>
@@ -14980,7 +15000,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>2007</v>
       </c>
@@ -14998,7 +15018,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1992</v>
       </c>
@@ -15018,7 +15038,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>1993</v>
       </c>
@@ -15038,7 +15058,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1994</v>
       </c>
@@ -15058,7 +15078,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>1995</v>
       </c>
@@ -15078,7 +15098,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1997</v>
       </c>
@@ -15098,7 +15118,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1999</v>
       </c>
@@ -15118,7 +15138,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>2002</v>
       </c>
@@ -15138,7 +15158,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>2005</v>
       </c>
@@ -15158,7 +15178,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>2008</v>
       </c>
@@ -15178,7 +15198,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2010</v>
       </c>
@@ -15198,7 +15218,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>1977</v>
       </c>
@@ -15218,7 +15238,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>1980</v>
       </c>
@@ -15238,7 +15258,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>1981</v>
       </c>
@@ -15258,7 +15278,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>1982</v>
       </c>
@@ -15278,7 +15298,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1983</v>
       </c>
@@ -15298,7 +15318,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1986</v>
       </c>
@@ -15318,7 +15338,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1987</v>
       </c>
@@ -15338,7 +15358,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1990</v>
       </c>
@@ -15358,7 +15378,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1991</v>
       </c>
@@ -15378,7 +15398,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1992</v>
       </c>
@@ -15398,7 +15418,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>1993</v>
       </c>
@@ -15418,7 +15438,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>1994</v>
       </c>
@@ -15438,7 +15458,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>1995</v>
       </c>
@@ -15458,7 +15478,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>1996</v>
       </c>
@@ -15478,7 +15498,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1997</v>
       </c>
@@ -15498,7 +15518,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1998</v>
       </c>
@@ -15518,7 +15538,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1999</v>
       </c>
@@ -15538,7 +15558,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>2000</v>
       </c>
@@ -15558,7 +15578,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>2001</v>
       </c>
@@ -15578,7 +15598,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>2002</v>
       </c>
@@ -15598,7 +15618,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2003</v>
       </c>
@@ -15618,7 +15638,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>2004</v>
       </c>
@@ -15638,7 +15658,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>2005</v>
       </c>
@@ -15658,7 +15678,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2006</v>
       </c>
@@ -15678,7 +15698,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2007</v>
       </c>
@@ -15698,7 +15718,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2008</v>
       </c>
@@ -15718,7 +15738,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2009</v>
       </c>
@@ -15738,7 +15758,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2010</v>
       </c>
@@ -15758,7 +15778,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>2011</v>
       </c>
@@ -15778,7 +15798,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>2012</v>
       </c>
@@ -15798,7 +15818,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>2013</v>
       </c>
@@ -15818,7 +15838,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>2014</v>
       </c>
@@ -15838,7 +15858,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>2015</v>
       </c>
@@ -15858,7 +15878,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2016</v>
       </c>
@@ -15878,7 +15898,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2010</v>
       </c>
@@ -15895,7 +15915,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2010</v>
       </c>
@@ -15915,7 +15935,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2010</v>
       </c>
@@ -15935,7 +15955,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2009</v>
       </c>
@@ -15955,7 +15975,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2011</v>
       </c>
@@ -15975,7 +15995,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2010</v>
       </c>
@@ -15995,7 +16015,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2010</v>
       </c>
@@ -16015,7 +16035,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2004</v>
       </c>
@@ -16032,7 +16052,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2017</v>
       </c>
@@ -16046,7 +16066,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>2016</v>
       </c>
@@ -16063,7 +16083,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>2012</v>
       </c>
@@ -16083,7 +16103,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>2016</v>
       </c>
@@ -16103,7 +16123,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>2018</v>
       </c>
@@ -16123,7 +16143,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2014</v>
       </c>
@@ -16140,7 +16160,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>2007</v>
       </c>
@@ -16157,7 +16177,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>2013</v>
       </c>
@@ -16174,7 +16194,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1988</v>
       </c>
@@ -16194,7 +16214,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1991</v>
       </c>
@@ -16214,7 +16234,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1994</v>
       </c>
@@ -16234,7 +16254,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>1998</v>
       </c>
@@ -16254,7 +16274,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2002</v>
       </c>
@@ -16274,7 +16294,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>2006</v>
       </c>
@@ -16294,7 +16314,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2010</v>
       </c>
@@ -16314,7 +16334,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2014</v>
       </c>
@@ -16334,7 +16354,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2018</v>
       </c>
@@ -16354,7 +16374,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>1993</v>
       </c>
@@ -16374,7 +16394,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>1993</v>
       </c>
@@ -16394,7 +16414,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>1993</v>
       </c>
@@ -16414,7 +16434,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>1993</v>
       </c>
@@ -16434,7 +16454,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>1993</v>
       </c>
@@ -16454,7 +16474,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>1981</v>
       </c>
@@ -16474,7 +16494,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>1982</v>
       </c>
@@ -16494,7 +16514,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>1984</v>
       </c>
@@ -16514,7 +16534,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>1989</v>
       </c>
@@ -16534,7 +16554,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1990</v>
       </c>
@@ -16554,7 +16574,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1991</v>
       </c>
@@ -16574,7 +16594,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>1995</v>
       </c>
@@ -16594,7 +16614,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>1996</v>
       </c>
@@ -16614,7 +16634,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>1997</v>
       </c>
@@ -16634,7 +16654,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>1998</v>
       </c>
@@ -16654,7 +16674,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>1999</v>
       </c>
@@ -16674,7 +16694,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>2000</v>
       </c>
@@ -16694,7 +16714,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>2001</v>
       </c>
@@ -16714,7 +16734,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>2002</v>
       </c>
@@ -16734,7 +16754,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>2003</v>
       </c>
@@ -16754,7 +16774,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>2004</v>
       </c>
@@ -16774,7 +16794,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>2005</v>
       </c>
@@ -16794,7 +16814,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>2006</v>
       </c>
@@ -16814,7 +16834,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>2007</v>
       </c>
@@ -16834,7 +16854,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>2008</v>
       </c>
@@ -16854,7 +16874,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>2009</v>
       </c>
@@ -16874,7 +16894,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>2010</v>
       </c>
@@ -16894,7 +16914,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>2011</v>
       </c>
@@ -16914,7 +16934,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>2012</v>
       </c>
@@ -16934,7 +16954,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>2013</v>
       </c>
@@ -16954,7 +16974,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>2014</v>
       </c>
@@ -16974,7 +16994,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>2016</v>
       </c>
@@ -16994,7 +17014,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>2020</v>
       </c>
@@ -17014,7 +17034,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -17034,7 +17054,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>2018</v>
       </c>
@@ -17054,7 +17074,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>2019</v>
       </c>
@@ -17074,7 +17094,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>2020</v>
       </c>
@@ -17094,7 +17114,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>2021</v>
       </c>
@@ -17114,7 +17134,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>2022</v>
       </c>
@@ -17134,7 +17154,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>1989</v>
       </c>
@@ -17154,7 +17174,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>2004</v>
       </c>
@@ -17175,6 +17195,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F603" xr:uid="{64ACC630-814C-4DC0-9B69-403F37244E7E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="aes1987"/>
+        <filter val="aes1990"/>
+        <filter val="aes1993, nsss1993"/>
+        <filter val="aes1996"/>
+        <filter val="aes1998"/>
+        <filter val="aes2001"/>
+        <filter val="aes2004"/>
+        <filter val="aes2007"/>
+        <filter val="aes2010"/>
+        <filter val="aes2013"/>
+        <filter val="aes2016"/>
+        <filter val="aes2019"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F603">
     <sortCondition ref="C1:C603"/>
   </sortState>
